--- a/GraduationProject/bin/Debug/BIMING模板算量.xlsx
+++ b/GraduationProject/bin/Debug/BIMING模板算量.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="混凝土 - 矩形梁" sheetId="1" r:id="R62a10f56ed3343e3"/>
-    <sheet name="混凝土 - 矩形 - 柱" sheetId="2" r:id="R93e790a20bc24ff9"/>
-    <sheet name="楼板" sheetId="3" r:id="Raf0e8c454ab943f6"/>
+    <sheet name="混凝土 - 矩形梁" sheetId="1" r:id="R776de157ef7f4f76"/>
+    <sheet name="混凝土 - 矩形 - 柱" sheetId="2" r:id="R2b459a916254465c"/>
+    <sheet name="楼板" sheetId="3" r:id="R58bf52ad0b154d58"/>
   </sheets>
 </workbook>
 </file>
@@ -2737,7 +2737,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2824,13 +2824,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1">
+        <v>471544</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F4" s="1">
-        <v>135.24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>67.62</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2841,16 +2853,16 @@
         <v>37</v>
       </c>
       <c r="C5" s="1">
-        <v>471544</v>
+        <v>471603</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1">
-        <v>67.62</v>
+        <v>67.605</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -2858,13 +2870,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1">
+        <v>471632</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F6" s="1">
-        <v>67.62</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>67.605</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2875,16 +2899,16 @@
         <v>37</v>
       </c>
       <c r="C7" s="1">
-        <v>471603</v>
+        <v>471657</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1">
-        <v>67.605</v>
+        <v>67.62</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -2892,80 +2916,12 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1">
-        <v>67.605</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1">
-        <v>471632</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1">
-        <v>67.605</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1">
-        <v>67.605</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1">
-        <v>471657</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="1">
-        <v>67.62</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="1">
-        <v>338.07</v>
-      </c>
-      <c r="G12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
